--- a/txsb_top_timing_bdlmax_tran_tsmc2p_meas.xlsx
+++ b/txsb_top_timing_bdlmax_tran_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="189">
   <si>
     <t>Process</t>
   </si>
@@ -265,7 +265,7 @@
     <t>0.750</t>
   </si>
   <si>
-    <t>0.500</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>0.850</t>
@@ -304,9 +304,6 @@
     <t>0.825</t>
   </si>
   <si>
-    <t>0.550</t>
-  </si>
-  <si>
     <t>0.893</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
   </si>
   <si>
     <t>tsmc2p (5)</t>
-  </si>
-  <si>
-    <t>0.450</t>
   </si>
   <si>
     <t>0.791</t>
@@ -1431,16 +1425,16 @@
         <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>83</v>
       </c>
       <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="s">
         <v>97</v>
-      </c>
-      <c r="N3" t="s">
-        <v>98</v>
       </c>
       <c r="O3">
         <v>156.317</v>
@@ -1622,7 +1616,7 @@
     </row>
     <row r="4" spans="1:73">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -1646,22 +1640,22 @@
         <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
         <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s">
         <v>83</v>
       </c>
       <c r="M4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" t="s">
         <v>97</v>
-      </c>
-      <c r="N4" t="s">
-        <v>98</v>
       </c>
       <c r="O4">
         <v>144.386</v>
@@ -1843,7 +1837,7 @@
     </row>
     <row r="5" spans="1:73">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -1870,19 +1864,19 @@
         <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
         <v>83</v>
       </c>
       <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
         <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>98</v>
       </c>
       <c r="O5">
         <v>173.733</v>
@@ -2064,7 +2058,7 @@
     </row>
     <row r="6" spans="1:73">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
         <v>87</v>
@@ -2088,22 +2082,22 @@
         <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" t="s">
         <v>83</v>
       </c>
       <c r="M6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" t="s">
         <v>97</v>
-      </c>
-      <c r="N6" t="s">
-        <v>98</v>
       </c>
       <c r="O6">
         <v>165.221</v>
@@ -2285,7 +2279,7 @@
     </row>
     <row r="7" spans="1:73">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -2315,16 +2309,16 @@
         <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
         <v>83</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O7">
         <v>160.947</v>
@@ -2506,7 +2500,7 @@
     </row>
     <row r="8" spans="1:73">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -2530,22 +2524,22 @@
         <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
         <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
         <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8">
         <v>150.76</v>
@@ -2727,7 +2721,7 @@
     </row>
     <row r="9" spans="1:73">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -2754,19 +2748,19 @@
         <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
         <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O9">
         <v>176.973</v>
@@ -2948,7 +2942,7 @@
     </row>
     <row r="10" spans="1:73">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -2972,22 +2966,22 @@
         <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
         <v>83</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10">
         <v>170.453</v>
@@ -3169,7 +3163,7 @@
     </row>
     <row r="11" spans="1:73">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -3184,13 +3178,13 @@
         <v>90</v>
       </c>
       <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
         <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>113</v>
       </c>
       <c r="I11" t="s">
         <v>94</v>
@@ -3199,16 +3193,16 @@
         <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" t="s">
         <v>83</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O11">
         <v>167.804</v>
@@ -3390,7 +3384,7 @@
     </row>
     <row r="12" spans="1:73">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -3405,31 +3399,31 @@
         <v>90</v>
       </c>
       <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
         <v>111</v>
       </c>
-      <c r="G12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" t="s">
-        <v>113</v>
-      </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
         <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s">
         <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O12">
         <v>155.083</v>
@@ -3611,7 +3605,7 @@
     </row>
     <row r="13" spans="1:73">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>87</v>
@@ -3626,31 +3620,31 @@
         <v>90</v>
       </c>
       <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
         <v>111</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" t="s">
-        <v>113</v>
       </c>
       <c r="I13" t="s">
         <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" t="s">
         <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O13">
         <v>184.053</v>
@@ -3832,7 +3826,7 @@
     </row>
     <row r="14" spans="1:73">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
@@ -3847,31 +3841,31 @@
         <v>90</v>
       </c>
       <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
         <v>111</v>
       </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" t="s">
-        <v>113</v>
-      </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s">
         <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O14">
         <v>174.561</v>
@@ -4053,7 +4047,7 @@
     </row>
     <row r="15" spans="1:73">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -4068,13 +4062,13 @@
         <v>90</v>
       </c>
       <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
         <v>111</v>
-      </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>113</v>
       </c>
       <c r="I15" t="s">
         <v>94</v>
@@ -4083,16 +4077,16 @@
         <v>95</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L15" t="s">
         <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O15">
         <v>171.921</v>
@@ -4274,7 +4268,7 @@
     </row>
     <row r="16" spans="1:73">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>87</v>
@@ -4289,31 +4283,31 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
         <v>111</v>
       </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" t="s">
-        <v>113</v>
-      </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
         <v>95</v>
       </c>
       <c r="K16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s">
         <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O16">
         <v>160.078</v>
@@ -4495,7 +4489,7 @@
     </row>
     <row r="17" spans="1:73">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -4510,31 +4504,31 @@
         <v>90</v>
       </c>
       <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" t="s">
-        <v>113</v>
       </c>
       <c r="I17" t="s">
         <v>94</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L17" t="s">
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O17">
         <v>186.938</v>
@@ -4716,7 +4710,7 @@
     </row>
     <row r="18" spans="1:73">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -4731,31 +4725,31 @@
         <v>90</v>
       </c>
       <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
         <v>111</v>
       </c>
-      <c r="G18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" t="s">
-        <v>113</v>
-      </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L18" t="s">
         <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O18">
         <v>180.015</v>
@@ -4937,19 +4931,19 @@
     </row>
     <row r="19" spans="1:73">
       <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
         <v>122</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>124</v>
-      </c>
-      <c r="D19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" t="s">
-        <v>126</v>
       </c>
       <c r="F19" t="s">
         <v>91</v>
@@ -4967,16 +4961,16 @@
         <v>95</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L19" t="s">
         <v>83</v>
       </c>
       <c r="M19" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" t="s">
         <v>97</v>
-      </c>
-      <c r="N19" t="s">
-        <v>98</v>
       </c>
       <c r="O19">
         <v>157.173</v>
@@ -5158,19 +5152,19 @@
     </row>
     <row r="20" spans="1:73">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>124</v>
-      </c>
-      <c r="D20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" t="s">
-        <v>126</v>
       </c>
       <c r="F20" t="s">
         <v>91</v>
@@ -5182,22 +5176,22 @@
         <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
         <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s">
         <v>83</v>
       </c>
       <c r="M20" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" t="s">
         <v>97</v>
-      </c>
-      <c r="N20" t="s">
-        <v>98</v>
       </c>
       <c r="O20">
         <v>145.78</v>
@@ -5379,19 +5373,19 @@
     </row>
     <row r="21" spans="1:73">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
         <v>123</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" t="s">
-        <v>126</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -5406,19 +5400,19 @@
         <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L21" t="s">
         <v>83</v>
       </c>
       <c r="M21" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" t="s">
         <v>97</v>
-      </c>
-      <c r="N21" t="s">
-        <v>98</v>
       </c>
       <c r="O21">
         <v>177.169</v>
@@ -5600,19 +5594,19 @@
     </row>
     <row r="22" spans="1:73">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
         <v>123</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>124</v>
-      </c>
-      <c r="D22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" t="s">
-        <v>126</v>
       </c>
       <c r="F22" t="s">
         <v>91</v>
@@ -5624,22 +5618,22 @@
         <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" t="s">
         <v>83</v>
       </c>
       <c r="M22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" t="s">
         <v>97</v>
-      </c>
-      <c r="N22" t="s">
-        <v>98</v>
       </c>
       <c r="O22">
         <v>168.21</v>
@@ -5821,19 +5815,19 @@
     </row>
     <row r="23" spans="1:73">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
         <v>123</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>124</v>
-      </c>
-      <c r="D23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
       </c>
       <c r="F23" t="s">
         <v>91</v>
@@ -5851,16 +5845,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s">
         <v>83</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O23">
         <v>161.001</v>
@@ -6042,19 +6036,19 @@
     </row>
     <row r="24" spans="1:73">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
         <v>123</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
         <v>124</v>
-      </c>
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" t="s">
-        <v>126</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -6066,22 +6060,22 @@
         <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
         <v>95</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s">
         <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O24">
         <v>151.17</v>
@@ -6263,19 +6257,19 @@
     </row>
     <row r="25" spans="1:73">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
         <v>123</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>124</v>
-      </c>
-      <c r="D25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
       </c>
       <c r="F25" t="s">
         <v>91</v>
@@ -6290,19 +6284,19 @@
         <v>94</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s">
         <v>83</v>
       </c>
       <c r="M25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O25">
         <v>177.503</v>
@@ -6484,19 +6478,19 @@
     </row>
     <row r="26" spans="1:73">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
         <v>123</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
       </c>
       <c r="F26" t="s">
         <v>91</v>
@@ -6508,22 +6502,22 @@
         <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
         <v>83</v>
       </c>
       <c r="M26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O26">
         <v>171.908</v>
@@ -6705,28 +6699,28 @@
     </row>
     <row r="27" spans="1:73">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>124</v>
       </c>
-      <c r="D27" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" t="s">
-        <v>126</v>
-      </c>
       <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
         <v>111</v>
-      </c>
-      <c r="G27" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" t="s">
-        <v>113</v>
       </c>
       <c r="I27" t="s">
         <v>94</v>
@@ -6735,16 +6729,16 @@
         <v>95</v>
       </c>
       <c r="K27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s">
         <v>83</v>
       </c>
       <c r="M27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O27">
         <v>167.613</v>
@@ -6926,46 +6920,46 @@
     </row>
     <row r="28" spans="1:73">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" t="s">
-        <v>126</v>
-      </c>
       <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
         <v>111</v>
       </c>
-      <c r="G28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" t="s">
-        <v>113</v>
-      </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" t="s">
         <v>95</v>
       </c>
       <c r="K28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s">
         <v>83</v>
       </c>
       <c r="M28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O28">
         <v>155.101</v>
@@ -7147,46 +7141,46 @@
     </row>
     <row r="29" spans="1:73">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
         <v>123</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
       <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
         <v>111</v>
-      </c>
-      <c r="G29" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" t="s">
-        <v>113</v>
       </c>
       <c r="I29" t="s">
         <v>94</v>
       </c>
       <c r="J29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L29" t="s">
         <v>83</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O29">
         <v>187.543</v>
@@ -7368,46 +7362,46 @@
     </row>
     <row r="30" spans="1:73">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>124</v>
       </c>
-      <c r="D30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" t="s">
-        <v>126</v>
-      </c>
       <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" t="s">
         <v>111</v>
       </c>
-      <c r="G30" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" t="s">
-        <v>113</v>
-      </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L30" t="s">
         <v>83</v>
       </c>
       <c r="M30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O30">
         <v>177.115</v>
@@ -7589,28 +7583,28 @@
     </row>
     <row r="31" spans="1:73">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>124</v>
       </c>
-      <c r="D31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" t="s">
-        <v>126</v>
-      </c>
       <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" t="s">
         <v>111</v>
-      </c>
-      <c r="G31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" t="s">
-        <v>113</v>
       </c>
       <c r="I31" t="s">
         <v>94</v>
@@ -7619,16 +7613,16 @@
         <v>95</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s">
         <v>83</v>
       </c>
       <c r="M31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O31">
         <v>170.874</v>
@@ -7810,46 +7804,46 @@
     </row>
     <row r="32" spans="1:73">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
         <v>123</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>124</v>
       </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>126</v>
-      </c>
       <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="s">
         <v>111</v>
       </c>
-      <c r="G32" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" t="s">
-        <v>113</v>
-      </c>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" t="s">
         <v>95</v>
       </c>
       <c r="K32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s">
         <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O32">
         <v>160.528</v>
@@ -8031,46 +8025,46 @@
     </row>
     <row r="33" spans="1:73">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>124</v>
       </c>
-      <c r="D33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" t="s">
-        <v>126</v>
-      </c>
       <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" t="s">
         <v>111</v>
-      </c>
-      <c r="G33" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" t="s">
-        <v>113</v>
       </c>
       <c r="I33" t="s">
         <v>94</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L33" t="s">
         <v>83</v>
       </c>
       <c r="M33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O33">
         <v>187.834</v>
@@ -8252,46 +8246,46 @@
     </row>
     <row r="34" spans="1:73">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>124</v>
       </c>
-      <c r="D34" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" t="s">
-        <v>126</v>
-      </c>
       <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" t="s">
         <v>111</v>
       </c>
-      <c r="G34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" t="s">
-        <v>113</v>
-      </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s">
         <v>83</v>
       </c>
       <c r="M34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O34">
         <v>181.11</v>
@@ -8473,19 +8467,19 @@
     </row>
     <row r="35" spans="1:73">
       <c r="A35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
         <v>142</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>143</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>144</v>
-      </c>
-      <c r="D35" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" t="s">
-        <v>146</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -8503,16 +8497,16 @@
         <v>95</v>
       </c>
       <c r="K35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L35" t="s">
         <v>83</v>
       </c>
       <c r="M35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" t="s">
         <v>97</v>
-      </c>
-      <c r="N35" t="s">
-        <v>98</v>
       </c>
       <c r="O35">
         <v>145.224</v>
@@ -8694,19 +8688,19 @@
     </row>
     <row r="36" spans="1:73">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
         <v>143</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>144</v>
-      </c>
-      <c r="D36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" t="s">
-        <v>146</v>
       </c>
       <c r="F36" t="s">
         <v>91</v>
@@ -8718,22 +8712,22 @@
         <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
         <v>95</v>
       </c>
       <c r="K36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L36" t="s">
         <v>83</v>
       </c>
       <c r="M36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" t="s">
         <v>97</v>
-      </c>
-      <c r="N36" t="s">
-        <v>98</v>
       </c>
       <c r="O36">
         <v>131.769</v>
@@ -8915,19 +8909,19 @@
     </row>
     <row r="37" spans="1:73">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>144</v>
-      </c>
-      <c r="D37" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" t="s">
-        <v>146</v>
       </c>
       <c r="F37" t="s">
         <v>91</v>
@@ -8942,19 +8936,19 @@
         <v>94</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s">
         <v>83</v>
       </c>
       <c r="M37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N37" t="s">
         <v>97</v>
-      </c>
-      <c r="N37" t="s">
-        <v>98</v>
       </c>
       <c r="O37">
         <v>158.772</v>
@@ -9136,19 +9130,19 @@
     </row>
     <row r="38" spans="1:73">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
         <v>143</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>144</v>
-      </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" t="s">
-        <v>146</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -9160,22 +9154,22 @@
         <v>93</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L38" t="s">
         <v>83</v>
       </c>
       <c r="M38" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" t="s">
         <v>97</v>
-      </c>
-      <c r="N38" t="s">
-        <v>98</v>
       </c>
       <c r="O38">
         <v>145.065</v>
@@ -9357,19 +9351,19 @@
     </row>
     <row r="39" spans="1:73">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
         <v>143</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>144</v>
-      </c>
-      <c r="D39" t="s">
-        <v>145</v>
-      </c>
-      <c r="E39" t="s">
-        <v>146</v>
       </c>
       <c r="F39" t="s">
         <v>91</v>
@@ -9387,16 +9381,16 @@
         <v>95</v>
       </c>
       <c r="K39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L39" t="s">
         <v>83</v>
       </c>
       <c r="M39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O39">
         <v>147.053</v>
@@ -9578,19 +9572,19 @@
     </row>
     <row r="40" spans="1:73">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
         <v>143</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" t="s">
-        <v>146</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
@@ -9602,22 +9596,22 @@
         <v>93</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J40" t="s">
         <v>95</v>
       </c>
       <c r="K40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L40" t="s">
         <v>83</v>
       </c>
       <c r="M40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O40">
         <v>134.613</v>
@@ -9799,19 +9793,19 @@
     </row>
     <row r="41" spans="1:73">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-      <c r="E41" t="s">
-        <v>146</v>
       </c>
       <c r="F41" t="s">
         <v>91</v>
@@ -9826,19 +9820,19 @@
         <v>94</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s">
         <v>83</v>
       </c>
       <c r="M41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O41">
         <v>158.531</v>
@@ -10020,19 +10014,19 @@
     </row>
     <row r="42" spans="1:73">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
         <v>143</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>144</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" t="s">
-        <v>146</v>
       </c>
       <c r="F42" t="s">
         <v>91</v>
@@ -10044,22 +10038,22 @@
         <v>93</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L42" t="s">
         <v>83</v>
       </c>
       <c r="M42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O42">
         <v>146.786</v>
@@ -10241,28 +10235,28 @@
     </row>
     <row r="43" spans="1:73">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>144</v>
       </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" t="s">
-        <v>146</v>
-      </c>
       <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" t="s">
         <v>111</v>
-      </c>
-      <c r="G43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" t="s">
-        <v>113</v>
       </c>
       <c r="I43" t="s">
         <v>94</v>
@@ -10271,16 +10265,16 @@
         <v>95</v>
       </c>
       <c r="K43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L43" t="s">
         <v>83</v>
       </c>
       <c r="M43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O43">
         <v>156.615</v>
@@ -10462,46 +10456,46 @@
     </row>
     <row r="44" spans="1:73">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
         <v>143</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>144</v>
       </c>
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" t="s">
-        <v>146</v>
-      </c>
       <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" t="s">
         <v>111</v>
       </c>
-      <c r="G44" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" t="s">
-        <v>113</v>
-      </c>
       <c r="I44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J44" t="s">
         <v>95</v>
       </c>
       <c r="K44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s">
         <v>83</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O44">
         <v>142.073</v>
@@ -10683,46 +10677,46 @@
     </row>
     <row r="45" spans="1:73">
       <c r="A45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
         <v>143</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>144</v>
       </c>
-      <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" t="s">
-        <v>146</v>
-      </c>
       <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
         <v>111</v>
-      </c>
-      <c r="G45" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" t="s">
-        <v>113</v>
       </c>
       <c r="I45" t="s">
         <v>94</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s">
         <v>83</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O45">
         <v>169.502</v>
@@ -10904,46 +10898,46 @@
     </row>
     <row r="46" spans="1:73">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
         <v>143</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>144</v>
       </c>
-      <c r="D46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" t="s">
-        <v>146</v>
-      </c>
       <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s">
         <v>111</v>
       </c>
-      <c r="G46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" t="s">
-        <v>113</v>
-      </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L46" t="s">
         <v>83</v>
       </c>
       <c r="M46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O46">
         <v>154.567</v>
@@ -11125,28 +11119,28 @@
     </row>
     <row r="47" spans="1:73">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
         <v>143</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>144</v>
       </c>
-      <c r="D47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" t="s">
-        <v>146</v>
-      </c>
       <c r="F47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" t="s">
         <v>111</v>
-      </c>
-      <c r="G47" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" t="s">
-        <v>113</v>
       </c>
       <c r="I47" t="s">
         <v>94</v>
@@ -11155,16 +11149,16 @@
         <v>95</v>
       </c>
       <c r="K47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s">
         <v>83</v>
       </c>
       <c r="M47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O47">
         <v>158.531</v>
@@ -11346,46 +11340,46 @@
     </row>
     <row r="48" spans="1:73">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>144</v>
       </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" t="s">
-        <v>146</v>
-      </c>
       <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" t="s">
         <v>111</v>
       </c>
-      <c r="G48" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" t="s">
-        <v>113</v>
-      </c>
       <c r="I48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J48" t="s">
         <v>95</v>
       </c>
       <c r="K48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s">
         <v>83</v>
       </c>
       <c r="M48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O48">
         <v>145.251</v>
@@ -11421,7 +11415,7 @@
         <v>10076.1</v>
       </c>
       <c r="Z48" s="2">
-        <v>39.7503</v>
+        <v>39.7504</v>
       </c>
       <c r="AA48" s="2">
         <v>14.887</v>
@@ -11567,46 +11561,46 @@
     </row>
     <row r="49" spans="1:73">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
         <v>143</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>144</v>
       </c>
-      <c r="D49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
-      </c>
       <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
         <v>111</v>
-      </c>
-      <c r="G49" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" t="s">
-        <v>113</v>
       </c>
       <c r="I49" t="s">
         <v>94</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L49" t="s">
         <v>83</v>
       </c>
       <c r="M49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O49">
         <v>168.463</v>
@@ -11788,46 +11782,46 @@
     </row>
     <row r="50" spans="1:73">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
         <v>143</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>144</v>
       </c>
-      <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" t="s">
-        <v>146</v>
-      </c>
       <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" t="s">
         <v>111</v>
       </c>
-      <c r="G50" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" t="s">
-        <v>113</v>
-      </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s">
         <v>83</v>
       </c>
       <c r="M50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O50">
         <v>156.517</v>
@@ -12009,19 +12003,19 @@
     </row>
     <row r="51" spans="1:73">
       <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
         <v>162</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>163</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>164</v>
-      </c>
-      <c r="D51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" t="s">
-        <v>166</v>
       </c>
       <c r="F51" t="s">
         <v>91</v>
@@ -12039,16 +12033,16 @@
         <v>95</v>
       </c>
       <c r="K51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s">
         <v>83</v>
       </c>
       <c r="M51" t="s">
+        <v>96</v>
+      </c>
+      <c r="N51" t="s">
         <v>97</v>
-      </c>
-      <c r="N51" t="s">
-        <v>98</v>
       </c>
       <c r="O51">
         <v>173.615</v>
@@ -12230,19 +12224,19 @@
     </row>
     <row r="52" spans="1:73">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
         <v>163</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>164</v>
-      </c>
-      <c r="D52" t="s">
-        <v>165</v>
-      </c>
-      <c r="E52" t="s">
-        <v>166</v>
       </c>
       <c r="F52" t="s">
         <v>91</v>
@@ -12254,22 +12248,22 @@
         <v>93</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J52" t="s">
         <v>95</v>
       </c>
       <c r="K52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s">
         <v>83</v>
       </c>
       <c r="M52" t="s">
+        <v>96</v>
+      </c>
+      <c r="N52" t="s">
         <v>97</v>
-      </c>
-      <c r="N52" t="s">
-        <v>98</v>
       </c>
       <c r="O52">
         <v>164.56</v>
@@ -12451,19 +12445,19 @@
     </row>
     <row r="53" spans="1:73">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
         <v>163</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>164</v>
-      </c>
-      <c r="D53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" t="s">
-        <v>166</v>
       </c>
       <c r="F53" t="s">
         <v>91</v>
@@ -12478,19 +12472,19 @@
         <v>94</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L53" t="s">
         <v>83</v>
       </c>
       <c r="M53" t="s">
+        <v>96</v>
+      </c>
+      <c r="N53" t="s">
         <v>97</v>
-      </c>
-      <c r="N53" t="s">
-        <v>98</v>
       </c>
       <c r="O53">
         <v>198.746</v>
@@ -12672,19 +12666,19 @@
     </row>
     <row r="54" spans="1:73">
       <c r="A54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
         <v>163</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" t="s">
-        <v>166</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -12696,22 +12690,22 @@
         <v>93</v>
       </c>
       <c r="I54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L54" t="s">
         <v>83</v>
       </c>
       <c r="M54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N54" t="s">
         <v>97</v>
-      </c>
-      <c r="N54" t="s">
-        <v>98</v>
       </c>
       <c r="O54">
         <v>197.159</v>
@@ -12893,19 +12887,19 @@
     </row>
     <row r="55" spans="1:73">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
         <v>163</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>164</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" t="s">
-        <v>166</v>
       </c>
       <c r="F55" t="s">
         <v>91</v>
@@ -12923,16 +12917,16 @@
         <v>95</v>
       </c>
       <c r="K55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L55" t="s">
         <v>83</v>
       </c>
       <c r="M55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O55">
         <v>180.866</v>
@@ -13114,19 +13108,19 @@
     </row>
     <row r="56" spans="1:73">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
         <v>163</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>164</v>
-      </c>
-      <c r="D56" t="s">
-        <v>165</v>
-      </c>
-      <c r="E56" t="s">
-        <v>166</v>
       </c>
       <c r="F56" t="s">
         <v>91</v>
@@ -13138,22 +13132,22 @@
         <v>93</v>
       </c>
       <c r="I56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J56" t="s">
         <v>95</v>
       </c>
       <c r="K56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L56" t="s">
         <v>83</v>
       </c>
       <c r="M56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O56">
         <v>173.895</v>
@@ -13335,19 +13329,19 @@
     </row>
     <row r="57" spans="1:73">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>164</v>
-      </c>
-      <c r="D57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" t="s">
-        <v>166</v>
       </c>
       <c r="F57" t="s">
         <v>91</v>
@@ -13362,19 +13356,19 @@
         <v>94</v>
       </c>
       <c r="J57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L57" t="s">
         <v>83</v>
       </c>
       <c r="M57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O57">
         <v>204.188</v>
@@ -13556,19 +13550,19 @@
     </row>
     <row r="58" spans="1:73">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
         <v>163</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>164</v>
-      </c>
-      <c r="D58" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" t="s">
-        <v>166</v>
       </c>
       <c r="F58" t="s">
         <v>91</v>
@@ -13580,22 +13574,22 @@
         <v>93</v>
       </c>
       <c r="I58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L58" t="s">
         <v>83</v>
       </c>
       <c r="M58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O58">
         <v>205.707</v>
@@ -13777,28 +13771,28 @@
     </row>
     <row r="59" spans="1:73">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
         <v>163</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>164</v>
       </c>
-      <c r="D59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" t="s">
-        <v>166</v>
-      </c>
       <c r="F59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" t="s">
         <v>111</v>
-      </c>
-      <c r="G59" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" t="s">
-        <v>113</v>
       </c>
       <c r="I59" t="s">
         <v>94</v>
@@ -13807,16 +13801,16 @@
         <v>95</v>
       </c>
       <c r="K59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L59" t="s">
         <v>83</v>
       </c>
       <c r="M59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O59">
         <v>184.063</v>
@@ -13998,46 +13992,46 @@
     </row>
     <row r="60" spans="1:73">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
         <v>163</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>164</v>
       </c>
-      <c r="D60" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
       <c r="F60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" t="s">
         <v>111</v>
       </c>
-      <c r="G60" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" t="s">
-        <v>113</v>
-      </c>
       <c r="I60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J60" t="s">
         <v>95</v>
       </c>
       <c r="K60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L60" t="s">
         <v>83</v>
       </c>
       <c r="M60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O60">
         <v>174.558</v>
@@ -14219,46 +14213,46 @@
     </row>
     <row r="61" spans="1:73">
       <c r="A61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
         <v>163</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>164</v>
       </c>
-      <c r="D61" t="s">
-        <v>165</v>
-      </c>
-      <c r="E61" t="s">
-        <v>166</v>
-      </c>
       <c r="F61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" t="s">
+        <v>110</v>
+      </c>
+      <c r="H61" t="s">
         <v>111</v>
-      </c>
-      <c r="G61" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" t="s">
-        <v>113</v>
       </c>
       <c r="I61" t="s">
         <v>94</v>
       </c>
       <c r="J61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L61" t="s">
         <v>83</v>
       </c>
       <c r="M61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O61">
         <v>208.347</v>
@@ -14440,46 +14434,46 @@
     </row>
     <row r="62" spans="1:73">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
         <v>163</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>164</v>
       </c>
-      <c r="D62" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" t="s">
-        <v>166</v>
-      </c>
       <c r="F62" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" t="s">
         <v>111</v>
       </c>
-      <c r="G62" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" t="s">
-        <v>113</v>
-      </c>
       <c r="I62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s">
         <v>83</v>
       </c>
       <c r="M62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O62">
         <v>206.564</v>
@@ -14661,28 +14655,28 @@
     </row>
     <row r="63" spans="1:73">
       <c r="A63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
         <v>163</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>164</v>
       </c>
-      <c r="D63" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" t="s">
-        <v>166</v>
-      </c>
       <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" t="s">
         <v>111</v>
-      </c>
-      <c r="G63" t="s">
-        <v>112</v>
-      </c>
-      <c r="H63" t="s">
-        <v>113</v>
       </c>
       <c r="I63" t="s">
         <v>94</v>
@@ -14691,16 +14685,16 @@
         <v>95</v>
       </c>
       <c r="K63" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L63" t="s">
         <v>83</v>
       </c>
       <c r="M63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O63">
         <v>190.255</v>
@@ -14882,46 +14876,46 @@
     </row>
     <row r="64" spans="1:73">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" t="s">
         <v>163</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>164</v>
       </c>
-      <c r="D64" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" t="s">
-        <v>166</v>
-      </c>
       <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" t="s">
         <v>111</v>
       </c>
-      <c r="G64" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" t="s">
-        <v>113</v>
-      </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J64" t="s">
         <v>95</v>
       </c>
       <c r="K64" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L64" t="s">
         <v>83</v>
       </c>
       <c r="M64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O64">
         <v>183.572</v>
@@ -15103,46 +15097,46 @@
     </row>
     <row r="65" spans="1:73">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" t="s">
         <v>163</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>164</v>
       </c>
-      <c r="D65" t="s">
-        <v>165</v>
-      </c>
-      <c r="E65" t="s">
-        <v>166</v>
-      </c>
       <c r="F65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" t="s">
         <v>111</v>
-      </c>
-      <c r="G65" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" t="s">
-        <v>113</v>
       </c>
       <c r="I65" t="s">
         <v>94</v>
       </c>
       <c r="J65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K65" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L65" t="s">
         <v>83</v>
       </c>
       <c r="M65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O65">
         <v>213.757</v>
@@ -15324,46 +15318,46 @@
     </row>
     <row r="66" spans="1:73">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" t="s">
         <v>163</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>164</v>
       </c>
-      <c r="D66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" t="s">
-        <v>166</v>
-      </c>
       <c r="F66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" t="s">
         <v>111</v>
       </c>
-      <c r="G66" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" t="s">
-        <v>113</v>
-      </c>
       <c r="I66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K66" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L66" t="s">
         <v>83</v>
       </c>
       <c r="M66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O66">
         <v>214.626</v>
@@ -15766,7 +15760,7 @@
     </row>
     <row r="68" spans="1:73" s="1" customFormat="1">
       <c r="N68" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O68" s="1">
         <v>131.769</v>
@@ -15948,7 +15942,7 @@
     </row>
     <row r="69" spans="1:73" s="1" customFormat="1">
       <c r="N69" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O69" s="1">
         <v>214.626</v>
@@ -16130,7 +16124,7 @@
     </row>
     <row r="70" spans="1:73" s="1" customFormat="1">
       <c r="N70" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O70" s="1">
         <v>350</v>
@@ -16264,7 +16258,7 @@
     </row>
     <row r="71" spans="1:73" s="1" customFormat="1">
       <c r="N71" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R71" s="1">
         <v>47</v>
@@ -16341,7 +16335,7 @@
     </row>
     <row r="72" spans="1:73" s="1" customFormat="1">
       <c r="N72" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="R72" s="1">
         <v>51.5</v>
@@ -16385,7 +16379,7 @@
     </row>
     <row r="73" spans="1:73" s="1" customFormat="1">
       <c r="N73" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R73" s="1">
         <v>48.5</v>
@@ -16414,7 +16408,7 @@
     </row>
     <row r="74" spans="1:73" s="1" customFormat="1">
       <c r="N74" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O74" s="1">
         <v>169.7445230769231</v>
@@ -16450,7 +16444,7 @@
         <v>10090.84153846154</v>
       </c>
       <c r="Z74" s="1">
-        <v>9.083126938461536</v>
+        <v>9.083128476923076</v>
       </c>
       <c r="AA74" s="1">
         <v>19.72406769230769</v>
@@ -16596,7 +16590,7 @@
     </row>
     <row r="75" spans="1:73" s="1" customFormat="1">
       <c r="N75" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O75" s="1">
         <v>19.1723445306857</v>
@@ -16632,7 +16626,7 @@
         <v>12.33636141727975</v>
       </c>
       <c r="Z75" s="1">
-        <v>16.66540902567731</v>
+        <v>16.66541185671121</v>
       </c>
       <c r="AA75" s="1">
         <v>3.69563449637574</v>
@@ -16778,7 +16772,7 @@
     </row>
     <row r="76" spans="1:73" s="1" customFormat="1">
       <c r="N76" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O76" s="1">
         <v>11.29482364623769</v>
@@ -16814,7 +16808,7 @@
         <v>0.1222530486705133</v>
       </c>
       <c r="Z76" s="1">
-        <v>183.4765619657852</v>
+        <v>183.4765620573567</v>
       </c>
       <c r="AA76" s="1">
         <v>18.73667518296454</v>
